--- a/hw 3-2.xlsx
+++ b/hw 3-2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="95">
   <si>
     <t>Summary and Preconditions</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Число 0 пропадает, на дальнейший ввод чисел программа не реагирует (требуется перезагрузка программы)</t>
+  </si>
+  <si>
+    <t>https://testeroneit.atlassian.net/browse/CAL-78</t>
   </si>
   <si>
     <t>Изменение знака числа - 4</t>
@@ -140,6 +143,9 @@
     <t>На экран результатов выводится число 1; копирование возможно только с клавиатуры</t>
   </si>
   <si>
+    <t>https://testeroneit.atlassian.net/browse/CAL-80</t>
+  </si>
+  <si>
     <t>Операции с 100% - 1</t>
   </si>
   <si>
@@ -186,6 +192,9 @@
   </si>
   <si>
     <t>На экран результатов выводится сумма квадрата числа, введенного на шаге 1 и 1</t>
+  </si>
+  <si>
+    <t>https://testeroneit.atlassian.net/browse/CAL-81</t>
   </si>
   <si>
     <t>Операции с 100% - 4</t>
@@ -247,6 +256,9 @@
   </si>
   <si>
     <t>На экран результатов выводится число 1</t>
+  </si>
+  <si>
+    <t>https://testeroneit.atlassian.net/browse/CAL-83</t>
   </si>
   <si>
     <t>Операции с 0% - 8</t>
@@ -325,6 +337,9 @@
     <t>Окно программы изменяет размер, клавиши программы остаются на месте без изменений</t>
   </si>
   <si>
+    <t>https://testeroneit.atlassian.net/browse/CAL-84</t>
+  </si>
+  <si>
     <t>Действия с пунктами меню - 3</t>
   </si>
   <si>
@@ -359,7 +374,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -372,6 +387,12 @@
     </font>
     <font>
       <sz val="10.0"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
     </font>
     <font/>
@@ -438,10 +459,10 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -632,7 +653,9 @@
       <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -657,16 +680,16 @@
     </row>
     <row r="6" ht="31.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
@@ -693,16 +716,16 @@
     </row>
     <row r="7" ht="31.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
@@ -729,16 +752,16 @@
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
@@ -765,16 +788,16 @@
     </row>
     <row r="9" ht="31.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
@@ -801,16 +824,16 @@
     </row>
     <row r="10" ht="31.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
@@ -837,16 +860,16 @@
     </row>
     <row r="11" ht="31.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
@@ -873,18 +896,20 @@
     </row>
     <row r="12" ht="31.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -909,16 +934,16 @@
     </row>
     <row r="13" ht="31.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
@@ -945,16 +970,16 @@
     </row>
     <row r="14" ht="31.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
@@ -981,18 +1006,20 @@
     </row>
     <row r="15" ht="31.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -1017,16 +1044,16 @@
     </row>
     <row r="16" ht="31.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
@@ -1053,16 +1080,16 @@
     </row>
     <row r="17" ht="31.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
@@ -1089,16 +1116,16 @@
     </row>
     <row r="18" ht="31.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
@@ -1125,18 +1152,20 @@
     </row>
     <row r="19" ht="31.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1161,16 +1190,16 @@
     </row>
     <row r="20" ht="31.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
@@ -1197,16 +1226,16 @@
     </row>
     <row r="21" ht="31.5" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="6"/>
@@ -1233,16 +1262,16 @@
     </row>
     <row r="22" ht="31.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="6"/>
@@ -1269,16 +1298,16 @@
     </row>
     <row r="23" ht="31.5" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="6"/>
@@ -1305,16 +1334,16 @@
     </row>
     <row r="24" ht="31.5" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="6"/>
@@ -1341,18 +1370,20 @@
     </row>
     <row r="25" ht="31.5" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -1377,16 +1408,16 @@
     </row>
     <row r="26" ht="31.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="6"/>
@@ -1413,16 +1444,16 @@
     </row>
     <row r="27" ht="31.5" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
@@ -1449,16 +1480,16 @@
     </row>
     <row r="28" ht="31.5" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="6"/>
@@ -28588,6 +28619,13 @@
       <c r="Z996" s="9"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E5"/>
+    <hyperlink r:id="rId2" ref="E12"/>
+    <hyperlink r:id="rId3" ref="E15"/>
+    <hyperlink r:id="rId4" ref="E19"/>
+    <hyperlink r:id="rId5" ref="E25"/>
+  </hyperlinks>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>